--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados4.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados4.xlsx
@@ -591,10 +591,10 @@
         <v>0.010966</v>
       </c>
       <c r="P2">
-        <v>-11956</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>-3154</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <v>-8118</v>
@@ -711,10 +711,10 @@
         <v>0.0228</v>
       </c>
       <c r="P3">
-        <v>-10954</v>
+        <v>30</v>
       </c>
       <c r="Q3">
-        <v>-2469</v>
+        <v>6</v>
       </c>
       <c r="R3">
         <v>-550</v>
@@ -831,10 +831,10 @@
         <v>0.003813</v>
       </c>
       <c r="P4">
-        <v>-16142</v>
+        <v>44</v>
       </c>
       <c r="Q4">
-        <v>-2832</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <v>-3440</v>
@@ -951,10 +951,10 @@
         <v>0.007114</v>
       </c>
       <c r="P5">
-        <v>-12648</v>
+        <v>34</v>
       </c>
       <c r="Q5">
-        <v>-2802</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>-2109</v>
@@ -1071,10 +1071,10 @@
         <v>0.031329</v>
       </c>
       <c r="P6">
-        <v>-13873</v>
+        <v>38</v>
       </c>
       <c r="Q6">
-        <v>-1282</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>-632</v>
@@ -1191,10 +1191,10 @@
         <v>0.009656999999999999</v>
       </c>
       <c r="P7">
-        <v>-13957</v>
+        <v>38</v>
       </c>
       <c r="Q7">
-        <v>-410</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>-5038</v>
@@ -1311,10 +1311,10 @@
         <v>0.010966</v>
       </c>
       <c r="P8">
-        <v>-13803</v>
+        <v>37</v>
       </c>
       <c r="Q8">
-        <v>-281</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>-640</v>
@@ -1431,10 +1431,10 @@
         <v>0.018029</v>
       </c>
       <c r="P9">
-        <v>-11978</v>
+        <v>32</v>
       </c>
       <c r="Q9">
-        <v>-3947</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>-6005</v>
@@ -1551,10 +1551,10 @@
         <v>0.022625</v>
       </c>
       <c r="P10">
-        <v>-8292</v>
+        <v>22</v>
       </c>
       <c r="Q10">
-        <v>-166</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>-3062</v>
@@ -1671,10 +1671,10 @@
         <v>0.022625</v>
       </c>
       <c r="P11">
-        <v>-11631</v>
+        <v>31</v>
       </c>
       <c r="Q11">
-        <v>-782</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>-7868</v>
@@ -1786,10 +1786,10 @@
         <v>0.031329</v>
       </c>
       <c r="P12">
-        <v>-17438</v>
+        <v>47</v>
       </c>
       <c r="Q12">
-        <v>-3668</v>
+        <v>10</v>
       </c>
       <c r="R12">
         <v>-10185</v>
@@ -1906,10 +1906,10 @@
         <v>0.014464</v>
       </c>
       <c r="P13">
-        <v>-13552</v>
+        <v>37</v>
       </c>
       <c r="Q13">
-        <v>-2418</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>-755</v>
@@ -2026,10 +2026,10 @@
         <v>0.030755</v>
       </c>
       <c r="P14">
-        <v>-13455</v>
+        <v>36</v>
       </c>
       <c r="Q14">
-        <v>-4971</v>
+        <v>13</v>
       </c>
       <c r="R14">
         <v>-5851</v>
@@ -2146,10 +2146,10 @@
         <v>0.022625</v>
       </c>
       <c r="P15">
-        <v>-19642</v>
+        <v>53</v>
       </c>
       <c r="Q15">
-        <v>-6684</v>
+        <v>18</v>
       </c>
       <c r="R15">
         <v>-2495</v>
@@ -2266,10 +2266,10 @@
         <v>0.019689</v>
       </c>
       <c r="P16">
-        <v>-16048</v>
+        <v>43</v>
       </c>
       <c r="Q16">
-        <v>-3879</v>
+        <v>10</v>
       </c>
       <c r="R16">
         <v>-10146</v>
@@ -2386,10 +2386,10 @@
         <v>0.020713</v>
       </c>
       <c r="P17">
-        <v>-11418</v>
+        <v>31</v>
       </c>
       <c r="Q17">
-        <v>-3351</v>
+        <v>9</v>
       </c>
       <c r="R17">
         <v>-5597</v>
@@ -2506,10 +2506,10 @@
         <v>0.04622</v>
       </c>
       <c r="P18">
-        <v>-16304</v>
+        <v>44</v>
       </c>
       <c r="Q18">
-        <v>-811</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <v>-8807</v>
@@ -2626,10 +2626,10 @@
         <v>0.0228</v>
       </c>
       <c r="P19">
-        <v>-11178</v>
+        <v>30</v>
       </c>
       <c r="Q19">
-        <v>-4575</v>
+        <v>12</v>
       </c>
       <c r="R19">
         <v>-1505</v>
@@ -2746,10 +2746,10 @@
         <v>0.018029</v>
       </c>
       <c r="P20">
-        <v>-14751</v>
+        <v>40</v>
       </c>
       <c r="Q20">
-        <v>-8093</v>
+        <v>22</v>
       </c>
       <c r="R20">
         <v>-4199</v>
@@ -2866,10 +2866,10 @@
         <v>0.018029</v>
       </c>
       <c r="P21">
-        <v>-12200</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>-733</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>-179</v>
@@ -2986,10 +2986,10 @@
         <v>0.010643</v>
       </c>
       <c r="P22">
-        <v>-10241</v>
+        <v>28</v>
       </c>
       <c r="Q22">
-        <v>-732</v>
+        <v>2</v>
       </c>
       <c r="R22">
         <v>-2739</v>
@@ -3106,10 +3106,10 @@
         <v>0.031329</v>
       </c>
       <c r="P23">
-        <v>-17432</v>
+        <v>47</v>
       </c>
       <c r="Q23">
-        <v>-3797</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>-4570</v>
@@ -3226,10 +3226,10 @@
         <v>0.00702</v>
       </c>
       <c r="P24">
-        <v>-14774</v>
+        <v>40</v>
       </c>
       <c r="Q24">
-        <v>-791</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>-1659</v>
@@ -3346,10 +3346,10 @@
         <v>0.005084</v>
       </c>
       <c r="P25">
-        <v>-13141</v>
+        <v>36</v>
       </c>
       <c r="Q25">
-        <v>-168</v>
+        <v>0</v>
       </c>
       <c r="R25">
         <v>-1145</v>
@@ -3466,10 +3466,10 @@
         <v>0.018029</v>
       </c>
       <c r="P26">
-        <v>-12198</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>-2058</v>
+        <v>5</v>
       </c>
       <c r="R26">
         <v>-465</v>
@@ -3586,10 +3586,10 @@
         <v>0.00733</v>
       </c>
       <c r="P27">
-        <v>-10265</v>
+        <v>28</v>
       </c>
       <c r="Q27">
-        <v>-3404</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>-9322</v>
@@ -3706,10 +3706,10 @@
         <v>0.025164</v>
       </c>
       <c r="P28">
-        <v>-12693</v>
+        <v>34</v>
       </c>
       <c r="Q28">
-        <v>-2332</v>
+        <v>6</v>
       </c>
       <c r="R28">
         <v>-5990</v>
@@ -3826,10 +3826,10 @@
         <v>0.006670999999999999</v>
       </c>
       <c r="P29">
-        <v>-13273</v>
+        <v>36</v>
       </c>
       <c r="Q29">
-        <v>-6480</v>
+        <v>17</v>
       </c>
       <c r="R29">
         <v>-4053</v>
@@ -3946,10 +3946,10 @@
         <v>0.035792</v>
       </c>
       <c r="P30">
-        <v>-8827</v>
+        <v>24</v>
       </c>
       <c r="Q30">
-        <v>-721</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>-3650</v>
@@ -4061,10 +4061,10 @@
         <v>0.016612</v>
       </c>
       <c r="P31">
-        <v>-12170</v>
+        <v>33</v>
       </c>
       <c r="Q31">
-        <v>-177</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>-6233</v>
@@ -4181,10 +4181,10 @@
         <v>0.030755</v>
       </c>
       <c r="P32">
-        <v>-9615</v>
+        <v>26</v>
       </c>
       <c r="Q32">
-        <v>-1128</v>
+        <v>3</v>
       </c>
       <c r="R32">
         <v>-3842</v>
@@ -4301,10 +4301,10 @@
         <v>0.025164</v>
       </c>
       <c r="P33">
-        <v>-12598</v>
+        <v>34</v>
       </c>
       <c r="Q33">
-        <v>-4820</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>-6691</v>
@@ -4421,10 +4421,10 @@
         <v>0.02461</v>
       </c>
       <c r="P34">
-        <v>-8159</v>
+        <v>22</v>
       </c>
       <c r="Q34">
-        <v>-787</v>
+        <v>2</v>
       </c>
       <c r="R34">
         <v>-7423</v>
@@ -4541,10 +4541,10 @@
         <v>0.010032</v>
       </c>
       <c r="P35">
-        <v>-15354</v>
+        <v>42</v>
       </c>
       <c r="Q35">
-        <v>-578</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>-5649</v>
@@ -4661,10 +4661,10 @@
         <v>0.010276</v>
       </c>
       <c r="P36">
-        <v>-11123</v>
+        <v>30</v>
       </c>
       <c r="Q36">
-        <v>-2154</v>
+        <v>5</v>
       </c>
       <c r="R36">
         <v>-4621</v>
@@ -4781,10 +4781,10 @@
         <v>0.018634</v>
       </c>
       <c r="P37">
-        <v>-12229</v>
+        <v>33</v>
       </c>
       <c r="Q37">
-        <v>-2524</v>
+        <v>6</v>
       </c>
       <c r="R37">
         <v>-10404</v>
@@ -4901,10 +4901,10 @@
         <v>0.018634</v>
       </c>
       <c r="P38">
-        <v>-18813</v>
+        <v>51</v>
       </c>
       <c r="Q38">
-        <v>-1458</v>
+        <v>3</v>
       </c>
       <c r="R38">
         <v>-10206</v>
@@ -5021,10 +5021,10 @@
         <v>0.02461</v>
       </c>
       <c r="P39">
-        <v>-15745</v>
+        <v>43</v>
       </c>
       <c r="Q39">
-        <v>-3881</v>
+        <v>10</v>
       </c>
       <c r="R39">
         <v>-4543</v>
@@ -5136,10 +5136,10 @@
         <v>0.025164</v>
       </c>
       <c r="P40">
-        <v>-21855</v>
+        <v>59</v>
       </c>
       <c r="Q40">
-        <v>365243</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>-10634</v>
@@ -5251,10 +5251,10 @@
         <v>0.010643</v>
       </c>
       <c r="P41">
-        <v>-19085</v>
+        <v>52</v>
       </c>
       <c r="Q41">
-        <v>-5374</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>-10424</v>
@@ -5371,10 +5371,10 @@
         <v>0.031329</v>
       </c>
       <c r="P42">
-        <v>-14897</v>
+        <v>40</v>
       </c>
       <c r="Q42">
-        <v>-7771</v>
+        <v>21</v>
       </c>
       <c r="R42">
         <v>-1092</v>
@@ -5491,10 +5491,10 @@
         <v>0.018029</v>
       </c>
       <c r="P43">
-        <v>-14510</v>
+        <v>39</v>
       </c>
       <c r="Q43">
-        <v>-7648</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>-202</v>
@@ -5611,10 +5611,10 @@
         <v>0.030755</v>
       </c>
       <c r="P44">
-        <v>-13429</v>
+        <v>36</v>
       </c>
       <c r="Q44">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="R44">
         <v>-886</v>
@@ -5731,10 +5731,10 @@
         <v>0.026392</v>
       </c>
       <c r="P45">
-        <v>-13487</v>
+        <v>36</v>
       </c>
       <c r="Q45">
-        <v>-4626</v>
+        <v>12</v>
       </c>
       <c r="R45">
         <v>-897</v>
@@ -5851,10 +5851,10 @@
         <v>0.008473999999999999</v>
       </c>
       <c r="P46">
-        <v>-14345</v>
+        <v>39</v>
       </c>
       <c r="Q46">
-        <v>-6289</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>-5224</v>
@@ -5966,10 +5966,10 @@
         <v>0.010966</v>
       </c>
       <c r="P47">
-        <v>-18838</v>
+        <v>51</v>
       </c>
       <c r="Q47">
-        <v>-1841</v>
+        <v>5</v>
       </c>
       <c r="R47">
         <v>-11291</v>
@@ -6081,10 +6081,10 @@
         <v>0.072508</v>
       </c>
       <c r="P48">
-        <v>-11168</v>
+        <v>30</v>
       </c>
       <c r="Q48">
-        <v>-2291</v>
+        <v>6</v>
       </c>
       <c r="R48">
         <v>-5475</v>
@@ -6196,10 +6196,10 @@
         <v>0.020246</v>
       </c>
       <c r="P49">
-        <v>-15848</v>
+        <v>43</v>
       </c>
       <c r="Q49">
-        <v>-4148</v>
+        <v>11</v>
       </c>
       <c r="R49">
         <v>-2726</v>
@@ -6316,10 +6316,10 @@
         <v>0.00963</v>
       </c>
       <c r="P50">
-        <v>-11833</v>
+        <v>32</v>
       </c>
       <c r="Q50">
-        <v>-2308</v>
+        <v>6</v>
       </c>
       <c r="R50">
         <v>-4760</v>
@@ -6431,10 +6431,10 @@
         <v>0.032561</v>
       </c>
       <c r="P51">
-        <v>-15085</v>
+        <v>41</v>
       </c>
       <c r="Q51">
-        <v>-315</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>-7667</v>
@@ -6551,10 +6551,10 @@
         <v>0.018209</v>
       </c>
       <c r="P52">
-        <v>-14477</v>
+        <v>39</v>
       </c>
       <c r="Q52">
-        <v>-1637</v>
+        <v>4</v>
       </c>
       <c r="R52">
         <v>-868</v>
@@ -6671,10 +6671,10 @@
         <v>0.01885</v>
       </c>
       <c r="P53">
-        <v>-11419</v>
+        <v>31</v>
       </c>
       <c r="Q53">
-        <v>-1076</v>
+        <v>2</v>
       </c>
       <c r="R53">
         <v>-6119</v>
@@ -6791,10 +6791,10 @@
         <v>0.026392</v>
       </c>
       <c r="P54">
-        <v>-10720</v>
+        <v>29</v>
       </c>
       <c r="Q54">
-        <v>-537</v>
+        <v>1</v>
       </c>
       <c r="R54">
         <v>-4910</v>
@@ -6911,10 +6911,10 @@
         <v>0.008574999999999999</v>
       </c>
       <c r="P55">
-        <v>-17188</v>
+        <v>47</v>
       </c>
       <c r="Q55">
-        <v>-337</v>
+        <v>0</v>
       </c>
       <c r="R55">
         <v>-13163</v>
@@ -7031,10 +7031,10 @@
         <v>0.025164</v>
       </c>
       <c r="P56">
-        <v>-9798</v>
+        <v>26</v>
       </c>
       <c r="Q56">
-        <v>-1436</v>
+        <v>3</v>
       </c>
       <c r="R56">
         <v>-300</v>
@@ -7151,10 +7151,10 @@
         <v>0.010276</v>
       </c>
       <c r="P57">
-        <v>-14309</v>
+        <v>39</v>
       </c>
       <c r="Q57">
-        <v>-593</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>-2220</v>
@@ -7271,10 +7271,10 @@
         <v>0.032561</v>
       </c>
       <c r="P58">
-        <v>-16627</v>
+        <v>45</v>
       </c>
       <c r="Q58">
-        <v>-2255</v>
+        <v>6</v>
       </c>
       <c r="R58">
         <v>-567</v>
@@ -7391,10 +7391,10 @@
         <v>0.006670999999999999</v>
       </c>
       <c r="P59">
-        <v>-18928</v>
+        <v>51</v>
       </c>
       <c r="Q59">
-        <v>-1850</v>
+        <v>5</v>
       </c>
       <c r="R59">
         <v>-5507</v>
@@ -7511,10 +7511,10 @@
         <v>0.028663</v>
       </c>
       <c r="P60">
-        <v>-13891</v>
+        <v>38</v>
       </c>
       <c r="Q60">
-        <v>-787</v>
+        <v>2</v>
       </c>
       <c r="R60">
         <v>-4230</v>
@@ -7631,10 +7631,10 @@
         <v>0.009334</v>
       </c>
       <c r="P61">
-        <v>-12114</v>
+        <v>33</v>
       </c>
       <c r="Q61">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>-1100</v>
@@ -7751,10 +7751,10 @@
         <v>0.010643</v>
       </c>
       <c r="P62">
-        <v>-12004</v>
+        <v>32</v>
       </c>
       <c r="Q62">
-        <v>-1890</v>
+        <v>5</v>
       </c>
       <c r="R62">
         <v>-1148</v>
@@ -7871,10 +7871,10 @@
         <v>0.0228</v>
       </c>
       <c r="P63">
-        <v>-15543</v>
+        <v>42</v>
       </c>
       <c r="Q63">
-        <v>-272</v>
+        <v>0</v>
       </c>
       <c r="R63">
         <v>-9646</v>
@@ -7991,10 +7991,10 @@
         <v>0.009175000000000001</v>
       </c>
       <c r="P64">
-        <v>-12239</v>
+        <v>33</v>
       </c>
       <c r="Q64">
-        <v>-282</v>
+        <v>0</v>
       </c>
       <c r="R64">
         <v>-3725</v>
@@ -8106,10 +8106,10 @@
         <v>0.011657</v>
       </c>
       <c r="P65">
-        <v>-9580</v>
+        <v>26</v>
       </c>
       <c r="Q65">
-        <v>-905</v>
+        <v>2</v>
       </c>
       <c r="R65">
         <v>-9580</v>
@@ -8226,10 +8226,10 @@
         <v>0.04622</v>
       </c>
       <c r="P66">
-        <v>-12101</v>
+        <v>33</v>
       </c>
       <c r="Q66">
-        <v>-875</v>
+        <v>2</v>
       </c>
       <c r="R66">
         <v>-2091</v>
@@ -8346,10 +8346,10 @@
         <v>0.031329</v>
       </c>
       <c r="P67">
-        <v>-14484</v>
+        <v>39</v>
       </c>
       <c r="Q67">
-        <v>-3004</v>
+        <v>8</v>
       </c>
       <c r="R67">
         <v>-8589</v>
@@ -8466,10 +8466,10 @@
         <v>0.005313</v>
       </c>
       <c r="P68">
-        <v>-10989</v>
+        <v>30</v>
       </c>
       <c r="Q68">
-        <v>-2612</v>
+        <v>7</v>
       </c>
       <c r="R68">
         <v>-28</v>
@@ -8586,10 +8586,10 @@
         <v>0.01885</v>
       </c>
       <c r="P69">
-        <v>-13599</v>
+        <v>37</v>
       </c>
       <c r="Q69">
-        <v>-3799</v>
+        <v>10</v>
       </c>
       <c r="R69">
         <v>-1903</v>
@@ -8706,10 +8706,10 @@
         <v>0.00733</v>
       </c>
       <c r="P70">
-        <v>-15397</v>
+        <v>42</v>
       </c>
       <c r="Q70">
-        <v>-365</v>
+        <v>1</v>
       </c>
       <c r="R70">
         <v>-6705</v>
@@ -8826,10 +8826,10 @@
         <v>0.007305</v>
       </c>
       <c r="P71">
-        <v>-9971</v>
+        <v>27</v>
       </c>
       <c r="Q71">
-        <v>-1564</v>
+        <v>4</v>
       </c>
       <c r="R71">
         <v>-3453</v>
@@ -8946,10 +8946,10 @@
         <v>0.010006</v>
       </c>
       <c r="P72">
-        <v>-9967</v>
+        <v>27</v>
       </c>
       <c r="Q72">
-        <v>-3041</v>
+        <v>8</v>
       </c>
       <c r="R72">
         <v>-1035</v>
@@ -9066,10 +9066,10 @@
         <v>0.003818</v>
       </c>
       <c r="P73">
-        <v>-18729</v>
+        <v>51</v>
       </c>
       <c r="Q73">
-        <v>365243</v>
+        <v>16</v>
       </c>
       <c r="R73">
         <v>-133</v>
@@ -9181,10 +9181,10 @@
         <v>0.025164</v>
       </c>
       <c r="P74">
-        <v>-14193</v>
+        <v>38</v>
       </c>
       <c r="Q74">
-        <v>-4213</v>
+        <v>11</v>
       </c>
       <c r="R74">
         <v>-6547</v>
@@ -9296,10 +9296,10 @@
         <v>0.009334</v>
       </c>
       <c r="P75">
-        <v>-14958</v>
+        <v>40</v>
       </c>
       <c r="Q75">
-        <v>-1345</v>
+        <v>3</v>
       </c>
       <c r="R75">
         <v>-3376</v>
@@ -9416,10 +9416,10 @@
         <v>0.031329</v>
       </c>
       <c r="P76">
-        <v>-14014</v>
+        <v>38</v>
       </c>
       <c r="Q76">
-        <v>-489</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>-2071</v>
@@ -9536,10 +9536,10 @@
         <v>0.020246</v>
       </c>
       <c r="P77">
-        <v>-13455</v>
+        <v>36</v>
       </c>
       <c r="Q77">
-        <v>-6672</v>
+        <v>18</v>
       </c>
       <c r="R77">
         <v>-3213</v>
@@ -9656,10 +9656,10 @@
         <v>0.020246</v>
       </c>
       <c r="P78">
-        <v>-9344</v>
+        <v>25</v>
       </c>
       <c r="Q78">
-        <v>-920</v>
+        <v>2</v>
       </c>
       <c r="R78">
         <v>-881</v>
@@ -9776,10 +9776,10 @@
         <v>0.006207</v>
       </c>
       <c r="P79">
-        <v>-12954</v>
+        <v>35</v>
       </c>
       <c r="Q79">
-        <v>-1269</v>
+        <v>3</v>
       </c>
       <c r="R79">
         <v>-12954</v>
@@ -9896,10 +9896,10 @@
         <v>0.014464</v>
       </c>
       <c r="P80">
-        <v>-15314</v>
+        <v>41</v>
       </c>
       <c r="Q80">
-        <v>-5460</v>
+        <v>14</v>
       </c>
       <c r="R80">
         <v>-2892</v>
@@ -10016,10 +10016,10 @@
         <v>0.032561</v>
       </c>
       <c r="P81">
-        <v>-17760</v>
+        <v>48</v>
       </c>
       <c r="Q81">
-        <v>-225</v>
+        <v>0</v>
       </c>
       <c r="R81">
         <v>-992</v>
@@ -10136,10 +10136,10 @@
         <v>0.04622</v>
       </c>
       <c r="P82">
-        <v>-9294</v>
+        <v>25</v>
       </c>
       <c r="Q82">
-        <v>-1320</v>
+        <v>3</v>
       </c>
       <c r="R82">
         <v>-3925</v>
@@ -10251,10 +10251,10 @@
         <v>0.0105</v>
       </c>
       <c r="P83">
-        <v>-11526</v>
+        <v>31</v>
       </c>
       <c r="Q83">
-        <v>-883</v>
+        <v>2</v>
       </c>
       <c r="R83">
         <v>-532</v>
@@ -10366,10 +10366,10 @@
         <v>0.020246</v>
       </c>
       <c r="P84">
-        <v>-15135</v>
+        <v>41</v>
       </c>
       <c r="Q84">
-        <v>-2651</v>
+        <v>7</v>
       </c>
       <c r="R84">
         <v>-5033</v>
@@ -10486,10 +10486,10 @@
         <v>0.025164</v>
       </c>
       <c r="P85">
-        <v>-12296</v>
+        <v>33</v>
       </c>
       <c r="Q85">
-        <v>-1791</v>
+        <v>4</v>
       </c>
       <c r="R85">
         <v>-1703</v>
@@ -10606,10 +10606,10 @@
         <v>0.04622</v>
       </c>
       <c r="P86">
-        <v>-16499</v>
+        <v>45</v>
       </c>
       <c r="Q86">
-        <v>-193</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>-10533</v>
@@ -10726,10 +10726,10 @@
         <v>0.002134</v>
       </c>
       <c r="P87">
-        <v>-16660</v>
+        <v>45</v>
       </c>
       <c r="Q87">
-        <v>-587</v>
+        <v>1</v>
       </c>
       <c r="R87">
         <v>-577</v>
@@ -10846,10 +10846,10 @@
         <v>0.020713</v>
       </c>
       <c r="P88">
-        <v>-14487</v>
+        <v>39</v>
       </c>
       <c r="Q88">
-        <v>-112</v>
+        <v>0</v>
       </c>
       <c r="R88">
         <v>-828</v>
@@ -10966,10 +10966,10 @@
         <v>0.008068000000000001</v>
       </c>
       <c r="P89">
-        <v>-15349</v>
+        <v>42</v>
       </c>
       <c r="Q89">
-        <v>-4450</v>
+        <v>12</v>
       </c>
       <c r="R89">
         <v>-6785</v>
@@ -11086,10 +11086,10 @@
         <v>0.020713</v>
       </c>
       <c r="P90">
-        <v>-13107</v>
+        <v>35</v>
       </c>
       <c r="Q90">
-        <v>-3695</v>
+        <v>10</v>
       </c>
       <c r="R90">
         <v>-498</v>
@@ -11206,10 +11206,10 @@
         <v>0.01885</v>
       </c>
       <c r="P91">
-        <v>-15212</v>
+        <v>41</v>
       </c>
       <c r="Q91">
-        <v>-3417</v>
+        <v>9</v>
       </c>
       <c r="R91">
         <v>-6</v>
@@ -11326,10 +11326,10 @@
         <v>0.005002</v>
       </c>
       <c r="P92">
-        <v>-11764</v>
+        <v>32</v>
       </c>
       <c r="Q92">
-        <v>-162</v>
+        <v>0</v>
       </c>
       <c r="R92">
         <v>-1197</v>
@@ -11446,10 +11446,10 @@
         <v>0.018209</v>
       </c>
       <c r="P93">
-        <v>-12818</v>
+        <v>35</v>
       </c>
       <c r="Q93">
-        <v>-1375</v>
+        <v>3</v>
       </c>
       <c r="R93">
         <v>-6824</v>
@@ -11566,10 +11566,10 @@
         <v>0.010966</v>
       </c>
       <c r="P94">
-        <v>-13184</v>
+        <v>36</v>
       </c>
       <c r="Q94">
-        <v>-2571</v>
+        <v>7</v>
       </c>
       <c r="R94">
         <v>-1358</v>
@@ -11686,10 +11686,10 @@
         <v>0.015221</v>
       </c>
       <c r="P95">
-        <v>-10461</v>
+        <v>28</v>
       </c>
       <c r="Q95">
-        <v>-1330</v>
+        <v>3</v>
       </c>
       <c r="R95">
         <v>-5248</v>
@@ -11806,10 +11806,10 @@
         <v>0.010556</v>
       </c>
       <c r="P96">
-        <v>-12172</v>
+        <v>33</v>
       </c>
       <c r="Q96">
-        <v>-421</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>-6279</v>
@@ -11926,10 +11926,10 @@
         <v>0.011703</v>
       </c>
       <c r="P97">
-        <v>-8154</v>
+        <v>22</v>
       </c>
       <c r="Q97">
-        <v>-299</v>
+        <v>0</v>
       </c>
       <c r="R97">
         <v>-8154</v>
@@ -12046,10 +12046,10 @@
         <v>0.01452</v>
       </c>
       <c r="P98">
-        <v>-13457</v>
+        <v>36</v>
       </c>
       <c r="Q98">
-        <v>-706</v>
+        <v>1</v>
       </c>
       <c r="R98">
         <v>-3295</v>
@@ -12166,10 +12166,10 @@
         <v>0.020713</v>
       </c>
       <c r="P99">
-        <v>-12612</v>
+        <v>34</v>
       </c>
       <c r="Q99">
-        <v>-262</v>
+        <v>0</v>
       </c>
       <c r="R99">
         <v>-2063</v>
@@ -12286,10 +12286,10 @@
         <v>0.022625</v>
       </c>
       <c r="P100">
-        <v>-13299</v>
+        <v>36</v>
       </c>
       <c r="Q100">
-        <v>-2440</v>
+        <v>6</v>
       </c>
       <c r="R100">
         <v>-3640</v>
@@ -12406,10 +12406,10 @@
         <v>0.026392</v>
       </c>
       <c r="P101">
-        <v>-16943</v>
+        <v>46</v>
       </c>
       <c r="Q101">
-        <v>-1093</v>
+        <v>2</v>
       </c>
       <c r="R101">
         <v>-5212</v>
@@ -12526,10 +12526,10 @@
         <v>0.007305</v>
       </c>
       <c r="P102">
-        <v>-16030</v>
+        <v>43</v>
       </c>
       <c r="Q102">
-        <v>-8964</v>
+        <v>24</v>
       </c>
       <c r="R102">
         <v>-10140</v>
@@ -12646,10 +12646,10 @@
         <v>0.011657</v>
       </c>
       <c r="P103">
-        <v>-23300</v>
+        <v>63</v>
       </c>
       <c r="Q103">
-        <v>365243</v>
+        <v>10</v>
       </c>
       <c r="R103">
         <v>-10235</v>
@@ -12761,10 +12761,10 @@
         <v>0.010556</v>
       </c>
       <c r="P104">
-        <v>-12908</v>
+        <v>35</v>
       </c>
       <c r="Q104">
-        <v>-4586</v>
+        <v>12</v>
       </c>
       <c r="R104">
         <v>-2674</v>
@@ -12881,10 +12881,10 @@
         <v>0.010006</v>
       </c>
       <c r="P105">
-        <v>-14794</v>
+        <v>40</v>
       </c>
       <c r="Q105">
-        <v>-1763</v>
+        <v>4</v>
       </c>
       <c r="R105">
         <v>-1215</v>
@@ -13001,10 +13001,10 @@
         <v>0.015221</v>
       </c>
       <c r="P106">
-        <v>-17292</v>
+        <v>47</v>
       </c>
       <c r="Q106">
-        <v>-1209</v>
+        <v>3</v>
       </c>
       <c r="R106">
         <v>-3663</v>
@@ -13121,10 +13121,10 @@
         <v>0.031329</v>
       </c>
       <c r="P107">
-        <v>-15266</v>
+        <v>41</v>
       </c>
       <c r="Q107">
-        <v>-3134</v>
+        <v>8</v>
       </c>
       <c r="R107">
         <v>-2561</v>
@@ -13241,10 +13241,10 @@
         <v>0.008625000000000001</v>
       </c>
       <c r="P108">
-        <v>-15752</v>
+        <v>43</v>
       </c>
       <c r="Q108">
-        <v>365243</v>
+        <v>7</v>
       </c>
       <c r="R108">
         <v>-796</v>
@@ -13356,10 +13356,10 @@
         <v>0.00496</v>
       </c>
       <c r="P109">
-        <v>-14519</v>
+        <v>39</v>
       </c>
       <c r="Q109">
-        <v>-2497</v>
+        <v>6</v>
       </c>
       <c r="R109">
         <v>-4569</v>
@@ -13476,10 +13476,10 @@
         <v>0.018801</v>
       </c>
       <c r="P110">
-        <v>-11124</v>
+        <v>30</v>
       </c>
       <c r="Q110">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>-4847</v>
@@ -13596,10 +13596,10 @@
         <v>0.008625000000000001</v>
       </c>
       <c r="P111">
-        <v>-13830</v>
+        <v>37</v>
       </c>
       <c r="Q111">
-        <v>-978</v>
+        <v>2</v>
       </c>
       <c r="R111">
         <v>-3160</v>
@@ -13716,10 +13716,10 @@
         <v>0.009334</v>
       </c>
       <c r="P112">
-        <v>-9100</v>
+        <v>24</v>
       </c>
       <c r="Q112">
-        <v>-1962</v>
+        <v>5</v>
       </c>
       <c r="R112">
         <v>-4521</v>
@@ -13836,10 +13836,10 @@
         <v>0.025164</v>
       </c>
       <c r="P113">
-        <v>-18191</v>
+        <v>49</v>
       </c>
       <c r="Q113">
-        <v>-551</v>
+        <v>1</v>
       </c>
       <c r="R113">
         <v>-3781</v>
@@ -13956,10 +13956,10 @@
         <v>0.019689</v>
       </c>
       <c r="P114">
-        <v>-13024</v>
+        <v>35</v>
       </c>
       <c r="Q114">
-        <v>-5443</v>
+        <v>14</v>
       </c>
       <c r="R114">
         <v>-5745</v>
@@ -14076,10 +14076,10 @@
         <v>0.02461</v>
       </c>
       <c r="P115">
-        <v>-10302</v>
+        <v>28</v>
       </c>
       <c r="Q115">
-        <v>-2066</v>
+        <v>5</v>
       </c>
       <c r="R115">
         <v>-4944</v>
@@ -14196,10 +14196,10 @@
         <v>0.01452</v>
       </c>
       <c r="P116">
-        <v>-11579</v>
+        <v>31</v>
       </c>
       <c r="Q116">
-        <v>-3297</v>
+        <v>9</v>
       </c>
       <c r="R116">
         <v>-1128</v>
@@ -14311,10 +14311,10 @@
         <v>0.010006</v>
       </c>
       <c r="P117">
-        <v>-9434</v>
+        <v>25</v>
       </c>
       <c r="Q117">
-        <v>-504</v>
+        <v>1</v>
       </c>
       <c r="R117">
         <v>-915</v>
@@ -14431,10 +14431,10 @@
         <v>0.02461</v>
       </c>
       <c r="P118">
-        <v>-11285</v>
+        <v>30</v>
       </c>
       <c r="Q118">
-        <v>-1898</v>
+        <v>5</v>
       </c>
       <c r="R118">
         <v>-2389</v>
@@ -14551,10 +14551,10 @@
         <v>0.020246</v>
       </c>
       <c r="P119">
-        <v>-14574</v>
+        <v>39</v>
       </c>
       <c r="Q119">
-        <v>-964</v>
+        <v>2</v>
       </c>
       <c r="R119">
         <v>-276</v>
@@ -14671,10 +14671,10 @@
         <v>0.025164</v>
       </c>
       <c r="P120">
-        <v>-16109</v>
+        <v>44</v>
       </c>
       <c r="Q120">
-        <v>-2611</v>
+        <v>7</v>
       </c>
       <c r="R120">
         <v>-1081</v>
@@ -14791,10 +14791,10 @@
         <v>0.0228</v>
       </c>
       <c r="P121">
-        <v>-11596</v>
+        <v>31</v>
       </c>
       <c r="Q121">
-        <v>-2296</v>
+        <v>6</v>
       </c>
       <c r="R121">
         <v>-2159</v>
@@ -14911,10 +14911,10 @@
         <v>0.006207</v>
       </c>
       <c r="P122">
-        <v>-16647</v>
+        <v>45</v>
       </c>
       <c r="Q122">
-        <v>-9916</v>
+        <v>27</v>
       </c>
       <c r="R122">
         <v>-1295</v>
@@ -15031,10 +15031,10 @@
         <v>0.022625</v>
       </c>
       <c r="P123">
-        <v>-13586</v>
+        <v>37</v>
       </c>
       <c r="Q123">
-        <v>-3611</v>
+        <v>9</v>
       </c>
       <c r="R123">
         <v>-7010</v>
@@ -15151,10 +15151,10 @@
         <v>0.010006</v>
       </c>
       <c r="P124">
-        <v>-13176</v>
+        <v>36</v>
       </c>
       <c r="Q124">
-        <v>-944</v>
+        <v>2</v>
       </c>
       <c r="R124">
         <v>-670</v>
@@ -15271,10 +15271,10 @@
         <v>0.04622</v>
       </c>
       <c r="P125">
-        <v>-13898</v>
+        <v>38</v>
       </c>
       <c r="Q125">
-        <v>-1959</v>
+        <v>5</v>
       </c>
       <c r="R125">
         <v>-7734</v>
@@ -15391,10 +15391,10 @@
         <v>0.006305</v>
       </c>
       <c r="P126">
-        <v>-17163</v>
+        <v>47</v>
       </c>
       <c r="Q126">
-        <v>-539</v>
+        <v>1</v>
       </c>
       <c r="R126">
         <v>-2585</v>
@@ -15511,10 +15511,10 @@
         <v>0.035792</v>
       </c>
       <c r="P127">
-        <v>-15329</v>
+        <v>41</v>
       </c>
       <c r="Q127">
-        <v>-4720</v>
+        <v>12</v>
       </c>
       <c r="R127">
         <v>-3942</v>
@@ -15631,10 +15631,10 @@
         <v>0.006296</v>
       </c>
       <c r="P128">
-        <v>-15915</v>
+        <v>43</v>
       </c>
       <c r="Q128">
-        <v>-785</v>
+        <v>2</v>
       </c>
       <c r="R128">
         <v>-4743</v>
@@ -15751,10 +15751,10 @@
         <v>0.031329</v>
       </c>
       <c r="P129">
-        <v>-13427</v>
+        <v>36</v>
       </c>
       <c r="Q129">
-        <v>-254</v>
+        <v>0</v>
       </c>
       <c r="R129">
         <v>-745</v>
@@ -15871,10 +15871,10 @@
         <v>0.04622</v>
       </c>
       <c r="P130">
-        <v>-14955</v>
+        <v>40</v>
       </c>
       <c r="Q130">
-        <v>-1502</v>
+        <v>4</v>
       </c>
       <c r="R130">
         <v>-7528</v>
@@ -15991,10 +15991,10 @@
         <v>0.031329</v>
       </c>
       <c r="P131">
-        <v>-14136</v>
+        <v>38</v>
       </c>
       <c r="Q131">
-        <v>-2860</v>
+        <v>7</v>
       </c>
       <c r="R131">
         <v>-4349</v>
@@ -16111,10 +16111,10 @@
         <v>0.014464</v>
       </c>
       <c r="P132">
-        <v>-10325</v>
+        <v>28</v>
       </c>
       <c r="Q132">
-        <v>-3206</v>
+        <v>8</v>
       </c>
       <c r="R132">
         <v>-250</v>
@@ -16231,10 +16231,10 @@
         <v>0.025164</v>
       </c>
       <c r="P133">
-        <v>-11434</v>
+        <v>31</v>
       </c>
       <c r="Q133">
-        <v>-3238</v>
+        <v>8</v>
       </c>
       <c r="R133">
         <v>-4782</v>
@@ -16351,10 +16351,10 @@
         <v>0.009334</v>
       </c>
       <c r="P134">
-        <v>-14158</v>
+        <v>38</v>
       </c>
       <c r="Q134">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="R134">
         <v>-538</v>
@@ -16466,10 +16466,10 @@
         <v>0.018029</v>
       </c>
       <c r="P135">
-        <v>-14807</v>
+        <v>40</v>
       </c>
       <c r="Q135">
-        <v>-153</v>
+        <v>0</v>
       </c>
       <c r="R135">
         <v>-2579</v>
@@ -16586,10 +16586,10 @@
         <v>0.009656999999999999</v>
       </c>
       <c r="P136">
-        <v>-13099</v>
+        <v>35</v>
       </c>
       <c r="Q136">
-        <v>-3875</v>
+        <v>10</v>
       </c>
       <c r="R136">
         <v>-2249</v>
@@ -16701,10 +16701,10 @@
         <v>0.008019</v>
       </c>
       <c r="P137">
-        <v>-17929</v>
+        <v>49</v>
       </c>
       <c r="Q137">
-        <v>-8444</v>
+        <v>23</v>
       </c>
       <c r="R137">
         <v>-8157</v>
@@ -16821,10 +16821,10 @@
         <v>0.018209</v>
       </c>
       <c r="P138">
-        <v>-12239</v>
+        <v>33</v>
       </c>
       <c r="Q138">
-        <v>-2815</v>
+        <v>7</v>
       </c>
       <c r="R138">
         <v>-6387</v>
@@ -16941,10 +16941,10 @@
         <v>0.0228</v>
       </c>
       <c r="P139">
-        <v>-14863</v>
+        <v>40</v>
       </c>
       <c r="Q139">
-        <v>-488</v>
+        <v>1</v>
       </c>
       <c r="R139">
         <v>-3698</v>
@@ -17061,10 +17061,10 @@
         <v>0.018801</v>
       </c>
       <c r="P140">
-        <v>-14186</v>
+        <v>38</v>
       </c>
       <c r="Q140">
-        <v>-1002</v>
+        <v>2</v>
       </c>
       <c r="R140">
         <v>-2719</v>
@@ -17181,10 +17181,10 @@
         <v>0.010006</v>
       </c>
       <c r="P141">
-        <v>-13002</v>
+        <v>35</v>
       </c>
       <c r="Q141">
-        <v>-1450</v>
+        <v>3</v>
       </c>
       <c r="R141">
         <v>-2129</v>
@@ -17301,10 +17301,10 @@
         <v>0.02461</v>
       </c>
       <c r="P142">
-        <v>-14505</v>
+        <v>39</v>
       </c>
       <c r="Q142">
-        <v>-2432</v>
+        <v>6</v>
       </c>
       <c r="R142">
         <v>-1037</v>
@@ -17416,10 +17416,10 @@
         <v>0.009334</v>
       </c>
       <c r="P143">
-        <v>-12792</v>
+        <v>35</v>
       </c>
       <c r="Q143">
-        <v>-683</v>
+        <v>1</v>
       </c>
       <c r="R143">
         <v>-5737</v>
@@ -17536,10 +17536,10 @@
         <v>0.009334</v>
       </c>
       <c r="P144">
-        <v>-15648</v>
+        <v>42</v>
       </c>
       <c r="Q144">
-        <v>-6152</v>
+        <v>16</v>
       </c>
       <c r="R144">
         <v>-1082</v>
@@ -17656,10 +17656,10 @@
         <v>0.019689</v>
       </c>
       <c r="P145">
-        <v>-21955</v>
+        <v>60</v>
       </c>
       <c r="Q145">
-        <v>365243</v>
+        <v>4</v>
       </c>
       <c r="R145">
         <v>-1479</v>
@@ -17771,10 +17771,10 @@
         <v>0.019689</v>
       </c>
       <c r="P146">
-        <v>-10984</v>
+        <v>30</v>
       </c>
       <c r="Q146">
-        <v>-340</v>
+        <v>0</v>
       </c>
       <c r="R146">
         <v>-631</v>
@@ -17891,10 +17891,10 @@
         <v>0.010006</v>
       </c>
       <c r="P147">
-        <v>-12956</v>
+        <v>35</v>
       </c>
       <c r="Q147">
-        <v>-151</v>
+        <v>0</v>
       </c>
       <c r="R147">
         <v>-787</v>
@@ -18011,10 +18011,10 @@
         <v>0.031329</v>
       </c>
       <c r="P148">
-        <v>-14137</v>
+        <v>38</v>
       </c>
       <c r="Q148">
-        <v>-4430</v>
+        <v>12</v>
       </c>
       <c r="R148">
         <v>-1656</v>
@@ -18131,10 +18131,10 @@
         <v>0.00963</v>
       </c>
       <c r="P149">
-        <v>-13198</v>
+        <v>36</v>
       </c>
       <c r="Q149">
-        <v>-2355</v>
+        <v>6</v>
       </c>
       <c r="R149">
         <v>-7204</v>
@@ -18251,10 +18251,10 @@
         <v>0.031329</v>
       </c>
       <c r="P150">
-        <v>-11330</v>
+        <v>31</v>
       </c>
       <c r="Q150">
-        <v>-4572</v>
+        <v>12</v>
       </c>
       <c r="R150">
         <v>-2106</v>
@@ -18371,10 +18371,10 @@
         <v>0.018801</v>
       </c>
       <c r="P151">
-        <v>-18066</v>
+        <v>49</v>
       </c>
       <c r="Q151">
-        <v>-1133</v>
+        <v>3</v>
       </c>
       <c r="R151">
         <v>-6366</v>
@@ -18491,10 +18491,10 @@
         <v>0.011703</v>
       </c>
       <c r="P152">
-        <v>-16249</v>
+        <v>44</v>
       </c>
       <c r="Q152">
-        <v>-3723</v>
+        <v>10</v>
       </c>
       <c r="R152">
         <v>-10150</v>
@@ -18611,10 +18611,10 @@
         <v>0.028663</v>
       </c>
       <c r="P153">
-        <v>-14483</v>
+        <v>39</v>
       </c>
       <c r="Q153">
-        <v>-6321</v>
+        <v>17</v>
       </c>
       <c r="R153">
         <v>-1343</v>
@@ -18731,10 +18731,10 @@
         <v>0.010147</v>
       </c>
       <c r="P154">
-        <v>-13492</v>
+        <v>36</v>
       </c>
       <c r="Q154">
-        <v>-6271</v>
+        <v>17</v>
       </c>
       <c r="R154">
         <v>-7527</v>
@@ -18851,10 +18851,10 @@
         <v>0.006629</v>
       </c>
       <c r="P155">
-        <v>-11984</v>
+        <v>32</v>
       </c>
       <c r="Q155">
-        <v>-2585</v>
+        <v>7</v>
       </c>
       <c r="R155">
         <v>-2572</v>
@@ -18971,10 +18971,10 @@
         <v>0.020246</v>
       </c>
       <c r="P156">
-        <v>-13598</v>
+        <v>37</v>
       </c>
       <c r="Q156">
-        <v>-6101</v>
+        <v>16</v>
       </c>
       <c r="R156">
         <v>-55</v>
@@ -19091,10 +19091,10 @@
         <v>0.030755</v>
       </c>
       <c r="P157">
-        <v>-11540</v>
+        <v>31</v>
       </c>
       <c r="Q157">
-        <v>-354</v>
+        <v>0</v>
       </c>
       <c r="R157">
         <v>-791</v>
@@ -19211,10 +19211,10 @@
         <v>0.018634</v>
       </c>
       <c r="P158">
-        <v>-11884</v>
+        <v>32</v>
       </c>
       <c r="Q158">
-        <v>-1919</v>
+        <v>5</v>
       </c>
       <c r="R158">
         <v>-5875</v>
@@ -19331,10 +19331,10 @@
         <v>0.032561</v>
       </c>
       <c r="P159">
-        <v>-12682</v>
+        <v>34</v>
       </c>
       <c r="Q159">
-        <v>-932</v>
+        <v>2</v>
       </c>
       <c r="R159">
         <v>-3442</v>
@@ -19451,10 +19451,10 @@
         <v>0.032561</v>
       </c>
       <c r="P160">
-        <v>-14774</v>
+        <v>40</v>
       </c>
       <c r="Q160">
-        <v>-2358</v>
+        <v>6</v>
       </c>
       <c r="R160">
         <v>-2174</v>
@@ -19571,10 +19571,10 @@
         <v>0.04622</v>
       </c>
       <c r="P161">
-        <v>-10896</v>
+        <v>29</v>
       </c>
       <c r="Q161">
-        <v>-959</v>
+        <v>2</v>
       </c>
       <c r="R161">
         <v>-970</v>
@@ -19691,10 +19691,10 @@
         <v>0.04622</v>
       </c>
       <c r="P162">
-        <v>-14825</v>
+        <v>40</v>
       </c>
       <c r="Q162">
-        <v>-1660</v>
+        <v>4</v>
       </c>
       <c r="R162">
         <v>-5319</v>
@@ -19811,10 +19811,10 @@
         <v>0.020713</v>
       </c>
       <c r="P163">
-        <v>-11773</v>
+        <v>32</v>
       </c>
       <c r="Q163">
-        <v>-311</v>
+        <v>0</v>
       </c>
       <c r="R163">
         <v>-4991</v>
@@ -19931,10 +19931,10 @@
         <v>0.00496</v>
       </c>
       <c r="P164">
-        <v>-13167</v>
+        <v>36</v>
       </c>
       <c r="Q164">
-        <v>-1641</v>
+        <v>4</v>
       </c>
       <c r="R164">
         <v>-7253</v>
@@ -20051,10 +20051,10 @@
         <v>0.010643</v>
       </c>
       <c r="P165">
-        <v>-10727</v>
+        <v>29</v>
       </c>
       <c r="Q165">
-        <v>-3126</v>
+        <v>8</v>
       </c>
       <c r="R165">
         <v>-10724</v>
@@ -20171,10 +20171,10 @@
         <v>0.00496</v>
       </c>
       <c r="P166">
-        <v>-19052</v>
+        <v>52</v>
       </c>
       <c r="Q166">
-        <v>-3468</v>
+        <v>9</v>
       </c>
       <c r="R166">
         <v>-8297</v>
@@ -20291,10 +20291,10 @@
         <v>0.022625</v>
       </c>
       <c r="P167">
-        <v>-10887</v>
+        <v>29</v>
       </c>
       <c r="Q167">
-        <v>-1526</v>
+        <v>4</v>
       </c>
       <c r="R167">
         <v>-4772</v>
@@ -20411,10 +20411,10 @@
         <v>0.031329</v>
       </c>
       <c r="P168">
-        <v>-15466</v>
+        <v>42</v>
       </c>
       <c r="Q168">
-        <v>-3662</v>
+        <v>10</v>
       </c>
       <c r="R168">
         <v>-5879</v>
@@ -20531,10 +20531,10 @@
         <v>0.031329</v>
       </c>
       <c r="P169">
-        <v>-11798</v>
+        <v>32</v>
       </c>
       <c r="Q169">
-        <v>-358</v>
+        <v>0</v>
       </c>
       <c r="R169">
         <v>-3877</v>
@@ -20651,10 +20651,10 @@
         <v>0.019689</v>
       </c>
       <c r="P170">
-        <v>-15820</v>
+        <v>43</v>
       </c>
       <c r="Q170">
-        <v>-568</v>
+        <v>1</v>
       </c>
       <c r="R170">
         <v>-1259</v>
@@ -20766,10 +20766,10 @@
         <v>0.010966</v>
       </c>
       <c r="P171">
-        <v>-11386</v>
+        <v>31</v>
       </c>
       <c r="Q171">
-        <v>-369</v>
+        <v>1</v>
       </c>
       <c r="R171">
         <v>-2491</v>
@@ -20886,10 +20886,10 @@
         <v>0.009656999999999999</v>
       </c>
       <c r="P172">
-        <v>-14481</v>
+        <v>39</v>
       </c>
       <c r="Q172">
-        <v>-5327</v>
+        <v>14</v>
       </c>
       <c r="R172">
         <v>-8611</v>
@@ -21006,10 +21006,10 @@
         <v>0.02461</v>
       </c>
       <c r="P173">
-        <v>-11629</v>
+        <v>31</v>
       </c>
       <c r="Q173">
-        <v>-2567</v>
+        <v>7</v>
       </c>
       <c r="R173">
         <v>-3383</v>
@@ -21121,10 +21121,10 @@
         <v>0.010006</v>
       </c>
       <c r="P174">
-        <v>-10060</v>
+        <v>27</v>
       </c>
       <c r="Q174">
-        <v>-328</v>
+        <v>0</v>
       </c>
       <c r="R174">
         <v>-4817</v>
@@ -21241,10 +21241,10 @@
         <v>0.035792</v>
       </c>
       <c r="P175">
-        <v>-12249</v>
+        <v>33</v>
       </c>
       <c r="Q175">
-        <v>-269</v>
+        <v>0</v>
       </c>
       <c r="R175">
         <v>-709</v>
@@ -21361,10 +21361,10 @@
         <v>0.022625</v>
       </c>
       <c r="P176">
-        <v>-10948</v>
+        <v>29</v>
       </c>
       <c r="Q176">
-        <v>-957</v>
+        <v>2</v>
       </c>
       <c r="R176">
         <v>-1949</v>
@@ -21481,10 +21481,10 @@
         <v>0.025164</v>
       </c>
       <c r="P177">
-        <v>-11608</v>
+        <v>31</v>
       </c>
       <c r="Q177">
-        <v>-902</v>
+        <v>2</v>
       </c>
       <c r="R177">
         <v>-963</v>
@@ -21601,10 +21601,10 @@
         <v>0.02461</v>
       </c>
       <c r="P178">
-        <v>-13519</v>
+        <v>37</v>
       </c>
       <c r="Q178">
-        <v>-2436</v>
+        <v>6</v>
       </c>
       <c r="R178">
         <v>-5499</v>
@@ -21721,10 +21721,10 @@
         <v>0.035792</v>
       </c>
       <c r="P179">
-        <v>-10278</v>
+        <v>28</v>
       </c>
       <c r="Q179">
-        <v>-1619</v>
+        <v>4</v>
       </c>
       <c r="R179">
         <v>-4579</v>
@@ -21836,10 +21836,10 @@
         <v>0.018029</v>
       </c>
       <c r="P180">
-        <v>-12114</v>
+        <v>33</v>
       </c>
       <c r="Q180">
-        <v>-3525</v>
+        <v>9</v>
       </c>
       <c r="R180">
         <v>-3386</v>
@@ -21956,10 +21956,10 @@
         <v>0.031329</v>
       </c>
       <c r="P181">
-        <v>-14521</v>
+        <v>39</v>
       </c>
       <c r="Q181">
-        <v>-1138</v>
+        <v>3</v>
       </c>
       <c r="R181">
         <v>-4133</v>
@@ -22076,10 +22076,10 @@
         <v>0.011657</v>
       </c>
       <c r="P182">
-        <v>-13154</v>
+        <v>36</v>
       </c>
       <c r="Q182">
-        <v>-468</v>
+        <v>1</v>
       </c>
       <c r="R182">
         <v>-6984</v>
@@ -22196,10 +22196,10 @@
         <v>0.010966</v>
       </c>
       <c r="P183">
-        <v>-13006</v>
+        <v>35</v>
       </c>
       <c r="Q183">
-        <v>-179</v>
+        <v>0</v>
       </c>
       <c r="R183">
         <v>-1326</v>
@@ -22316,10 +22316,10 @@
         <v>0.04622</v>
       </c>
       <c r="P184">
-        <v>-14610</v>
+        <v>40</v>
       </c>
       <c r="Q184">
-        <v>-572</v>
+        <v>1</v>
       </c>
       <c r="R184">
         <v>-3883</v>
@@ -22436,10 +22436,10 @@
         <v>0.030755</v>
       </c>
       <c r="P185">
-        <v>-14430</v>
+        <v>39</v>
       </c>
       <c r="Q185">
-        <v>-1546</v>
+        <v>4</v>
       </c>
       <c r="R185">
         <v>-2863</v>
@@ -22556,10 +22556,10 @@
         <v>0.009549</v>
       </c>
       <c r="P186">
-        <v>-19288</v>
+        <v>52</v>
       </c>
       <c r="Q186">
-        <v>-571</v>
+        <v>1</v>
       </c>
       <c r="R186">
         <v>-73</v>
@@ -22676,10 +22676,10 @@
         <v>0.04622</v>
       </c>
       <c r="P187">
-        <v>-15443</v>
+        <v>42</v>
       </c>
       <c r="Q187">
-        <v>-4203</v>
+        <v>11</v>
       </c>
       <c r="R187">
         <v>-4004</v>
@@ -22791,10 +22791,10 @@
         <v>0.018209</v>
       </c>
       <c r="P188">
-        <v>-12462</v>
+        <v>34</v>
       </c>
       <c r="Q188">
-        <v>-553</v>
+        <v>1</v>
       </c>
       <c r="R188">
         <v>-1700</v>
@@ -22911,10 +22911,10 @@
         <v>0.028663</v>
       </c>
       <c r="P189">
-        <v>-14156</v>
+        <v>38</v>
       </c>
       <c r="Q189">
-        <v>-2761</v>
+        <v>7</v>
       </c>
       <c r="R189">
         <v>-5599</v>
@@ -23026,10 +23026,10 @@
         <v>0.010006</v>
       </c>
       <c r="P190">
-        <v>-14598</v>
+        <v>39</v>
       </c>
       <c r="Q190">
-        <v>-1314</v>
+        <v>3</v>
       </c>
       <c r="R190">
         <v>-5134</v>
@@ -23146,10 +23146,10 @@
         <v>0.020246</v>
       </c>
       <c r="P191">
-        <v>-11544</v>
+        <v>31</v>
       </c>
       <c r="Q191">
-        <v>-1125</v>
+        <v>3</v>
       </c>
       <c r="R191">
         <v>-2423</v>
@@ -23266,10 +23266,10 @@
         <v>0.020713</v>
       </c>
       <c r="P192">
-        <v>-10885</v>
+        <v>29</v>
       </c>
       <c r="Q192">
-        <v>-2122</v>
+        <v>5</v>
       </c>
       <c r="R192">
         <v>-2977</v>
@@ -23386,10 +23386,10 @@
         <v>0.022625</v>
       </c>
       <c r="P193">
-        <v>-11283</v>
+        <v>30</v>
       </c>
       <c r="Q193">
-        <v>-620</v>
+        <v>1</v>
       </c>
       <c r="R193">
         <v>-9994</v>
@@ -23506,10 +23506,10 @@
         <v>0.01885</v>
       </c>
       <c r="P194">
-        <v>-18285</v>
+        <v>50</v>
       </c>
       <c r="Q194">
-        <v>-3077</v>
+        <v>8</v>
       </c>
       <c r="R194">
         <v>-7288</v>
@@ -23626,10 +23626,10 @@
         <v>0.028663</v>
       </c>
       <c r="P195">
-        <v>-14450</v>
+        <v>39</v>
       </c>
       <c r="Q195">
-        <v>-7581</v>
+        <v>20</v>
       </c>
       <c r="R195">
         <v>-2195</v>
@@ -23746,10 +23746,10 @@
         <v>0.01452</v>
       </c>
       <c r="P196">
-        <v>-17784</v>
+        <v>48</v>
       </c>
       <c r="Q196">
-        <v>-2468</v>
+        <v>6</v>
       </c>
       <c r="R196">
         <v>-43</v>
@@ -23866,10 +23866,10 @@
         <v>0.0228</v>
       </c>
       <c r="P197">
-        <v>-12663</v>
+        <v>34</v>
       </c>
       <c r="Q197">
-        <v>-4752</v>
+        <v>13</v>
       </c>
       <c r="R197">
         <v>-2187</v>
@@ -23986,10 +23986,10 @@
         <v>0.028663</v>
       </c>
       <c r="P198">
-        <v>-11515</v>
+        <v>31</v>
       </c>
       <c r="Q198">
-        <v>-954</v>
+        <v>2</v>
       </c>
       <c r="R198">
         <v>-344</v>
@@ -24101,10 +24101,10 @@
         <v>0.020246</v>
       </c>
       <c r="P199">
-        <v>-14094</v>
+        <v>38</v>
       </c>
       <c r="Q199">
-        <v>-2929</v>
+        <v>8</v>
       </c>
       <c r="R199">
         <v>-8156</v>
@@ -24216,10 +24216,10 @@
         <v>0.01885</v>
       </c>
       <c r="P200">
-        <v>-13719</v>
+        <v>37</v>
       </c>
       <c r="Q200">
-        <v>-365</v>
+        <v>1</v>
       </c>
       <c r="R200">
         <v>-838</v>
@@ -24336,10 +24336,10 @@
         <v>0.022625</v>
       </c>
       <c r="P201">
-        <v>-18562</v>
+        <v>50</v>
       </c>
       <c r="Q201">
-        <v>-6341</v>
+        <v>17</v>
       </c>
       <c r="R201">
         <v>-8559</v>
@@ -24456,10 +24456,10 @@
         <v>0.019689</v>
       </c>
       <c r="P202">
-        <v>-15690</v>
+        <v>42</v>
       </c>
       <c r="Q202">
-        <v>-6662</v>
+        <v>18</v>
       </c>
       <c r="R202">
         <v>-2577</v>
@@ -24576,10 +24576,10 @@
         <v>0.010032</v>
       </c>
       <c r="P203">
-        <v>-23509</v>
+        <v>64</v>
       </c>
       <c r="Q203">
-        <v>365243</v>
+        <v>3</v>
       </c>
       <c r="R203">
         <v>-1198</v>
@@ -24691,10 +24691,10 @@
         <v>0.002506</v>
       </c>
       <c r="P204">
-        <v>-11562</v>
+        <v>31</v>
       </c>
       <c r="Q204">
-        <v>-2307</v>
+        <v>6</v>
       </c>
       <c r="R204">
         <v>-8862</v>
@@ -24811,10 +24811,10 @@
         <v>0.031329</v>
       </c>
       <c r="P205">
-        <v>-10223</v>
+        <v>28</v>
       </c>
       <c r="Q205">
-        <v>-775</v>
+        <v>2</v>
       </c>
       <c r="R205">
         <v>-183</v>
@@ -24931,10 +24931,10 @@
         <v>0.0105</v>
       </c>
       <c r="P206">
-        <v>-14253</v>
+        <v>39</v>
       </c>
       <c r="Q206">
-        <v>-3527</v>
+        <v>9</v>
       </c>
       <c r="R206">
         <v>-2299</v>
@@ -25051,10 +25051,10 @@
         <v>0.028663</v>
       </c>
       <c r="P207">
-        <v>-14948</v>
+        <v>40</v>
       </c>
       <c r="Q207">
-        <v>-1852</v>
+        <v>5</v>
       </c>
       <c r="R207">
         <v>-3637</v>
@@ -25166,10 +25166,10 @@
         <v>0.04622</v>
       </c>
       <c r="P208">
-        <v>-13494</v>
+        <v>36</v>
       </c>
       <c r="Q208">
-        <v>-5804</v>
+        <v>15</v>
       </c>
       <c r="R208">
         <v>-7582</v>
@@ -25286,10 +25286,10 @@
         <v>0.005144</v>
       </c>
       <c r="P209">
-        <v>-12342</v>
+        <v>33</v>
       </c>
       <c r="Q209">
-        <v>-297</v>
+        <v>0</v>
       </c>
       <c r="R209">
         <v>-3515</v>
@@ -25406,10 +25406,10 @@
         <v>0.025164</v>
       </c>
       <c r="P210">
-        <v>-9958</v>
+        <v>27</v>
       </c>
       <c r="Q210">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="R210">
         <v>-646</v>
@@ -25521,10 +25521,10 @@
         <v>0.018029</v>
       </c>
       <c r="P211">
-        <v>-15145</v>
+        <v>41</v>
       </c>
       <c r="Q211">
-        <v>-7414</v>
+        <v>20</v>
       </c>
       <c r="R211">
         <v>-3509</v>
@@ -25641,10 +25641,10 @@
         <v>0.028663</v>
       </c>
       <c r="P212">
-        <v>-11736</v>
+        <v>32</v>
       </c>
       <c r="Q212">
-        <v>-3938</v>
+        <v>10</v>
       </c>
       <c r="R212">
         <v>-5680</v>
@@ -25761,10 +25761,10 @@
         <v>0.015221</v>
       </c>
       <c r="P213">
-        <v>-11347</v>
+        <v>31</v>
       </c>
       <c r="Q213">
-        <v>-3110</v>
+        <v>8</v>
       </c>
       <c r="R213">
         <v>-1831</v>
@@ -25881,10 +25881,10 @@
         <v>0.026392</v>
       </c>
       <c r="P214">
-        <v>-10523</v>
+        <v>28</v>
       </c>
       <c r="Q214">
-        <v>-249</v>
+        <v>0</v>
       </c>
       <c r="R214">
         <v>-932</v>
@@ -25996,10 +25996,10 @@
         <v>0.019101</v>
       </c>
       <c r="P215">
-        <v>-9937</v>
+        <v>27</v>
       </c>
       <c r="Q215">
-        <v>-1547</v>
+        <v>4</v>
       </c>
       <c r="R215">
         <v>-745</v>
@@ -26116,10 +26116,10 @@
         <v>0.0105</v>
       </c>
       <c r="P216">
-        <v>-11996</v>
+        <v>32</v>
       </c>
       <c r="Q216">
-        <v>-383</v>
+        <v>1</v>
       </c>
       <c r="R216">
         <v>-696</v>
